--- a/biology/Médecine/Bronchoconstriction/Bronchoconstriction.xlsx
+++ b/biology/Médecine/Bronchoconstriction/Bronchoconstriction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bronchoconstriction est le rétrécissement du calibre des bronches à cause d'une contraction des muscles bronchiques.
 La bronchoconstriction est due à la fixation de l'acétylcholine[réf. nécessaire] sur les récepteurs induisant une contraction des muscles lisses des bronches au niveau des poumons. Elle crée une obstruction des bronches qui peut entrainer une difficulté respiratoire. Elle est l'une des manifestations importante de l'asthme mais s'observe aussi, entre autres dans la BPCO.
